--- a/graph_generation/results_prelim/gpt3.5/level_1/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_1/k_1.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>prompt</t>
   </si>
@@ -26,6 +28,9 @@
   </si>
   <si>
     <t>evaluator_response</t>
+  </si>
+  <si>
+    <t>evaluator_partial_correctness</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
@@ -63,36 +68,101 @@
     <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
   </si>
   <si>
-    <t>To find the shortest path from node A to node J, we can use a graph traversal algorithm like Dijkstra's algorithm. 
-Starting from node A, we can visit its neighboring nodes and calculate the distance from A to each neighboring node. We can keep track of the minimum distance for each node and update it as we explore the graph. 
-Here is the step-by-step process using the given adjacency matrix:
-1. Initialize a distance array that will store the minimum distance from A to each node. Initially, set the distance for all nodes except A to infinity and set the distance for node A to 0.
-   Distance array: [0, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
-2. Initialize an array to keep track of visited nodes. Initially, set all nodes as unvisited.
-3. Repeat the following steps until all nodes have been visited:
-   - Select the unvisited node with the smallest distance from the distance array. Call this node "current".
-   - Mark "current" as visited.
-   - Explore the neighbors of "current" and update their distances in the distance array if a shorter path is found.
-Using this algorithm, we can find the shortest path from node A to node J:
-1. Start from node A and update the distance array:
-   - The neighboring node B has a distance of 1 from A. Update the distance for node B in the distance array.
-   Distance array: [0, 1, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
-2. Select the node with the smallest distance from the distance array, which is node B. Mark node B as visited.
-3. Update the distance array by exploring the neighbors of node B:
-   - The neighboring node C has a distance of 1 from B. As the distance through B is shorter than the current distance, update the distance for node C in the distance array.
-   Distance array: [0, 1, 2, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
-4. Select the node with the smallest distance from the distance array, which is node C. Mark node C as visited.
-5. Update the distance array by exploring the neighbors of node C:
-   - The neighboring node D has a distance of 2 from C. As the distance through C is shorter than the current distance, update the distance for node D in the distance array.
-   Distance array: [0, 1, 2, 3, infinity, infinity, infinity, infinity, infinity, infinity]
-6. Repeat steps 4 and 5 until all nodes have been visited. The final distance array will contain the shortest distances from node A to all other nodes:
-   Distance array: [0, 1, 2, 3, 4, 5, 6, 7, 8, 9]
-7. The shortest path from node A to node J can be determined by following the nodes with the decreasing distance values in the distance array:
-   Shortest path: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J
-Therefore, the shortest path from node A to node J is A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J.</t>
+    <t>Based on the given adjacency matrix, we can determine the shortest path from node A to node J by performing a breadth-first search (BFS) algorithm.
+Starting from node A, we traverse the graph by visiting its neighboring nodes first. Then, we visit the neighbors of the visited nodes until we reach node J.
+Here is the step-by-step process:
+1. Start at node A.
+2. Enqueue node A in a queue.
+3. Set a boolean array to keep track of visited nodes and mark node A as visited.
+4. Initialize a parent array to keep track of the parent nodes while traversing the graph.
+5. While the queue is not empty:
+   - Dequeue the first node from the queue.
+   - If the dequeued node is equal to node J, stop the traversal.
+   - Else, enqueue all the unvisited neighbors of the dequeued node and mark them as visited.
+     - Also, set the parent of the newly visited nodes as the dequeued node.
+6. Reconstruct the shortest path from node A to node J using the parent array.
+Using this algorithm, we can find the shortest path from node A to node J, which is:
+A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>Output: 5/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: what is the shortest path from node A to node X?
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+Solution: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X
+ Given these examples, answer the following quesiton.
+what is the shortest path from node A to node T?
+   A B C D E F G H I J K L M N O P Q R S T
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node T is A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T.</t>
   </si>
   <si>
     <t>Correct</t>
+  </si>
+  <si>
+    <t>1. 20/20</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node T is:
+A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>Output: 20/20</t>
   </si>
 </sst>
 </file>
@@ -450,13 +520,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,19 +539,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_1/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_1/k_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>prompt</t>
   </si>
@@ -35,7 +35,7 @@
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the shortest path from node A to node K?
+Example 1: what is the shortest path from node A to node K? Return the sequence of nodes in response.
    A B C D E F G H I J K
  A 0 1 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0 0
@@ -50,7 +50,7 @@
  K 0 0 0 0 0 0 0 0 0 1 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K
  Given these examples, answer the following quesiton.
-what is the shortest path from node A to node J?
+what is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
  A 0 1 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0
@@ -68,32 +68,18 @@
     <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
   </si>
   <si>
-    <t>Based on the given adjacency matrix, we can determine the shortest path from node A to node J by performing a breadth-first search (BFS) algorithm.
-Starting from node A, we traverse the graph by visiting its neighboring nodes first. Then, we visit the neighbors of the visited nodes until we reach node J.
-Here is the step-by-step process:
-1. Start at node A.
-2. Enqueue node A in a queue.
-3. Set a boolean array to keep track of visited nodes and mark node A as visited.
-4. Initialize a parent array to keep track of the parent nodes while traversing the graph.
-5. While the queue is not empty:
-   - Dequeue the first node from the queue.
-   - If the dequeued node is equal to node J, stop the traversal.
-   - Else, enqueue all the unvisited neighbors of the dequeued node and mark them as visited.
-     - Also, set the parent of the newly visited nodes as the dequeued node.
-6. Reconstruct the shortest path from node A to node J using the parent array.
-Using this algorithm, we can find the shortest path from node A to node J, which is:
-A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J</t>
+    <t>There is no direct connection between node A and node J in the given graph. Therefore, there is no shortest path from node A to node J.</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
-    <t>Output: 5/10</t>
+    <t>0/10</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the shortest path from node A to node X?
+Example 1: what is the shortest path from node A to node X? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X
  A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -121,7 +107,7 @@
  X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X
  Given these examples, answer the following quesiton.
-what is the shortest path from node A to node T?
+what is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
  A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -149,20 +135,21 @@
     <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T</t>
   </si>
   <si>
-    <t>The shortest path from node A to node T is A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T.</t>
-  </si>
-  <si>
-    <t>Correct</t>
-  </si>
-  <si>
-    <t>1. 20/20</t>
-  </si>
-  <si>
     <t>The shortest path from node A to node T is:
 A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T</t>
   </si>
   <si>
-    <t>Output: 20/20</t>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>20/20</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node T, we can use the breadth-first search (BFS) algorithm. 
+Starting at node A, we can explore all its neighbors and mark them as visited. Then, we can explore the neighbors of these neighbors and continue expanding until we reach node T. 
+Using the given adjacency matrix, the shortest path from A to T is:
+A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T
+So, the sequence of nodes in the shortest path is: A, B, C, D, E, F, G, H, I, J, K, L, M, N, O, P, Q, R, S, T.</t>
   </si>
 </sst>
 </file>
@@ -651,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
